--- a/excels/check/bonus_50.xlsx
+++ b/excels/check/bonus_50.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="13995" yWindow="0" windowWidth="14760" windowHeight="12705" firstSheet="2" activeTab="5"/>
+    <workbookView xWindow="13995" yWindow="0" windowWidth="14760" windowHeight="12705" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="length change1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <definedName name="_50_stepsNumber_change_1" localSheetId="0">'length change1'!$A$1:$R$82</definedName>
     <definedName name="_50_stepsNumber_change_2" localSheetId="1">'length change 2'!$A$1:$R$82</definedName>
     <definedName name="_50_stepsNumber_change_start" localSheetId="2">'lenght start change'!$A$1:$R$82</definedName>
-    <definedName name="_50_time_change_1" localSheetId="3">'time change 1'!$A$1:$P$82</definedName>
+    <definedName name="_50_time_change_1" localSheetId="3">'time change 1'!$A$1:$R$82</definedName>
     <definedName name="_50_time_change_2" localSheetId="4">'time change 2'!$A$1:$P$82</definedName>
     <definedName name="_50_time_change_start" localSheetId="5">'time change start'!$A$1:$P$82</definedName>
   </definedNames>
@@ -164,7 +164,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="97">
   <si>
     <t>maze</t>
   </si>
@@ -861,7 +861,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R85"/>
   <sheetViews>
-    <sheetView topLeftCell="G34" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A34" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="I93" sqref="I93"/>
     </sheetView>
   </sheetViews>
@@ -5108,7 +5108,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R85"/>
   <sheetViews>
-    <sheetView topLeftCell="G31" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A31" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="T85" sqref="T85"/>
     </sheetView>
   </sheetViews>
@@ -9355,7 +9355,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R85"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="N85" sqref="N85"/>
     </sheetView>
   </sheetViews>
@@ -13600,19 +13600,21 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P82"/>
+  <dimension ref="A1:R84"/>
   <sheetViews>
-    <sheetView topLeftCell="F37" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L32" sqref="A1:P82"/>
+    <sheetView topLeftCell="A43" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G74" sqref="G74:L82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="6.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="16" width="14.625" customWidth="1"/>
+    <col min="2" max="6" width="14.625" customWidth="1"/>
+    <col min="7" max="7" width="6.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="18" width="14.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:18">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -13632,37 +13634,40 @@
         <v>86</v>
       </c>
       <c r="G1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" t="s">
         <v>87</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>88</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>89</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>90</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>91</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>92</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>93</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>94</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>95</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:18">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -13681,38 +13686,41 @@
       <c r="F2">
         <v>8.5011720657348605E-2</v>
       </c>
-      <c r="G2">
+      <c r="G2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2">
         <v>1.86000204086303</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>2.67099928855896</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>2.7592391967773402</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>2.76899933815002</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>1.8060123920440601</v>
       </c>
-      <c r="L2">
+      <c r="N2">
         <v>2.2339992523193302</v>
       </c>
-      <c r="M2">
+      <c r="O2">
         <v>0.69901204109191895</v>
       </c>
-      <c r="N2">
+      <c r="P2">
         <v>0.48599815368652299</v>
       </c>
-      <c r="O2">
+      <c r="Q2">
         <v>0.69401454925537098</v>
       </c>
-      <c r="P2">
+      <c r="R2">
         <v>0.65200924873351995</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:18">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -13731,38 +13739,41 @@
       <c r="F3">
         <v>9.6002340316772405E-2</v>
       </c>
-      <c r="G3">
+      <c r="G3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3">
         <v>2.2509994506835902</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>2.0840086936950599</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>2.8307795524597101</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>1.88412261009216</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>1.6069970130920399</v>
       </c>
-      <c r="L3">
+      <c r="N3">
         <v>0.86000251770019498</v>
       </c>
-      <c r="M3">
+      <c r="O3">
         <v>0.93100023269653298</v>
       </c>
-      <c r="N3">
+      <c r="P3">
         <v>1.2770013809204099</v>
       </c>
-      <c r="O3">
+      <c r="Q3">
         <v>0.43499994277954102</v>
       </c>
-      <c r="P3">
+      <c r="R3">
         <v>0.73101186752319303</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:18">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -13781,38 +13792,41 @@
       <c r="F4">
         <v>8.6999654769897405E-2</v>
       </c>
-      <c r="G4">
+      <c r="G4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4">
         <v>1.88899970054626</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>2.3738594055175701</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>2.4269990921020499</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>2.2720208168029701</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>1.12101101875305</v>
       </c>
-      <c r="L4">
+      <c r="N4">
         <v>0.55301165580749501</v>
       </c>
-      <c r="M4">
+      <c r="O4">
         <v>0.475010395050048</v>
       </c>
-      <c r="N4">
+      <c r="P4">
         <v>0.48100113868713301</v>
       </c>
-      <c r="O4">
+      <c r="Q4">
         <v>0.96399974822998002</v>
       </c>
-      <c r="P4">
+      <c r="R4">
         <v>0.96800208091735795</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:18">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -13831,38 +13845,41 @@
       <c r="F5">
         <v>7.8999996185302707E-2</v>
       </c>
-      <c r="G5">
+      <c r="G5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H5">
         <v>3.3070003986358598</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>3.1489999294281001</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>2.0631673336028999</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>1.85429883003234</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>0.88001108169555597</v>
       </c>
-      <c r="L5">
+      <c r="N5">
         <v>0.99199175834655695</v>
       </c>
-      <c r="M5">
+      <c r="O5">
         <v>1.1369886398315401</v>
       </c>
-      <c r="N5">
+      <c r="P5">
         <v>0.76701021194457997</v>
       </c>
-      <c r="O5">
+      <c r="Q5">
         <v>0.49202299118041898</v>
       </c>
-      <c r="P5">
+      <c r="R5">
         <v>0.69900178909301702</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:18">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -13881,38 +13898,41 @@
       <c r="F6">
         <v>8.9010238647460896E-2</v>
       </c>
-      <c r="G6">
+      <c r="G6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6">
         <v>2.6500101089477499</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>2.2699995040893501</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>3.56761527061462</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>1.7229979038238501</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>1.8199999332427901</v>
       </c>
-      <c r="L6">
+      <c r="N6">
         <v>0.60699963569641102</v>
       </c>
-      <c r="M6">
+      <c r="O6">
         <v>0.48500037193298301</v>
       </c>
-      <c r="N6">
+      <c r="P6">
         <v>0.65799880027770996</v>
       </c>
-      <c r="O6">
+      <c r="Q6">
         <v>0.99901127815246504</v>
       </c>
-      <c r="P6">
+      <c r="R6">
         <v>0.831001996994018</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:18">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -13931,38 +13951,41 @@
       <c r="F7">
         <v>5.1010847091674798E-2</v>
       </c>
-      <c r="G7">
+      <c r="G7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H7">
         <v>2.1089897155761701</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>2.57701110839843</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>1.7462623119354199</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>5.0000019073486301</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>5.0000123977661097</v>
       </c>
-      <c r="L7">
+      <c r="N7">
         <v>1.2749969959259</v>
       </c>
-      <c r="M7">
+      <c r="O7">
         <v>1.6330537796020499</v>
       </c>
-      <c r="N7">
+      <c r="P7">
         <v>1.2390007972717201</v>
       </c>
-      <c r="O7">
+      <c r="Q7">
         <v>5.0000002384185702</v>
       </c>
-      <c r="P7">
+      <c r="R7">
         <v>0.55199956893920898</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:18">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -13981,38 +14004,41 @@
       <c r="F8">
         <v>2.1999835968017498E-2</v>
       </c>
-      <c r="G8">
+      <c r="G8" t="s">
+        <v>7</v>
+      </c>
+      <c r="H8">
         <v>0.6899995803833</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>3.1674063205718901</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>5.0001425743103001</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>5.0000119209289497</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>5.0000095367431596</v>
       </c>
-      <c r="L8">
+      <c r="N8">
         <v>0.92700004577636697</v>
       </c>
-      <c r="M8">
+      <c r="O8">
         <v>0.202000141143798</v>
       </c>
-      <c r="N8">
+      <c r="P8">
         <v>0.77199864387512196</v>
       </c>
-      <c r="O8">
+      <c r="Q8">
         <v>5.0000255107879603</v>
       </c>
-      <c r="P8">
+      <c r="R8">
         <v>1.1359994411468499</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:18">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -14031,38 +14057,41 @@
       <c r="F9">
         <v>1.29978656768798E-2</v>
       </c>
-      <c r="G9">
+      <c r="G9" t="s">
+        <v>8</v>
+      </c>
+      <c r="H9">
         <v>3.8019998073577801</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>1.55300116539001</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>5.00065016746521</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>5.0000019073486301</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>5.0000107288360596</v>
       </c>
-      <c r="L9">
+      <c r="N9">
         <v>0.975999355316162</v>
       </c>
-      <c r="M9">
+      <c r="O9">
         <v>0.94676446914672796</v>
       </c>
-      <c r="N9">
+      <c r="P9">
         <v>5.0000147819518999</v>
       </c>
-      <c r="O9">
+      <c r="Q9">
         <v>5.0000343322753897</v>
       </c>
-      <c r="P9">
+      <c r="R9">
         <v>5.0000023841857901</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:18">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -14081,38 +14110,41 @@
       <c r="F10">
         <v>2.3984432220458901E-2</v>
       </c>
-      <c r="G10">
+      <c r="G10" t="s">
+        <v>9</v>
+      </c>
+      <c r="H10">
         <v>2.7039976119995099</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>5.0000481605529696</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>5.0009999275207502</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>5.0000100135803196</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>5.0009999275207502</v>
       </c>
-      <c r="L10">
+      <c r="N10">
         <v>1.3359971046447701</v>
       </c>
-      <c r="M10">
+      <c r="O10">
         <v>0.73803544044494596</v>
       </c>
-      <c r="N10">
+      <c r="P10">
         <v>5.0000462532043404</v>
       </c>
-      <c r="O10">
+      <c r="Q10">
         <v>5.0002703666687003</v>
       </c>
-      <c r="P10">
+      <c r="R10">
         <v>5.0009982585906902</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:18">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -14131,38 +14163,41 @@
       <c r="F11">
         <v>9.39984321594238E-2</v>
       </c>
-      <c r="G11">
+      <c r="G11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H11">
         <v>2.5280115604400599</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>2.5330002307891801</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>2.27451372146606</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>2.9710092544555602</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>1.7990090847015301</v>
       </c>
-      <c r="L11">
+      <c r="N11">
         <v>2.26999711990356</v>
       </c>
-      <c r="M11">
+      <c r="O11">
         <v>0.61999964714050204</v>
       </c>
-      <c r="N11">
+      <c r="P11">
         <v>1.0960173606872501</v>
       </c>
-      <c r="O11">
+      <c r="Q11">
         <v>0.416999101638793</v>
       </c>
-      <c r="P11">
+      <c r="R11">
         <v>1.0190122127532899</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:18">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -14181,38 +14216,41 @@
       <c r="F12">
         <v>8.6011648178100503E-2</v>
       </c>
-      <c r="G12">
+      <c r="G12" t="s">
+        <v>11</v>
+      </c>
+      <c r="H12">
         <v>2.8989870548248202</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>2.6515142917632999</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>2.4589991569518999</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>2.6280107498168901</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>1.70099925994873</v>
       </c>
-      <c r="L12">
+      <c r="N12">
         <v>0.57800078392028797</v>
       </c>
-      <c r="M12">
+      <c r="O12">
         <v>0.74499964714050204</v>
       </c>
-      <c r="N12">
+      <c r="P12">
         <v>1.3030085563659599</v>
       </c>
-      <c r="O12">
+      <c r="Q12">
         <v>1.18202280998229</v>
       </c>
-      <c r="P12">
+      <c r="R12">
         <v>0.87100028991699197</v>
       </c>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:18">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -14231,38 +14269,41 @@
       <c r="F13">
         <v>8.6997747421264607E-2</v>
       </c>
-      <c r="G13">
+      <c r="G13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H13">
         <v>0.79999828338623002</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>2.79800176620483</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>2.4269986152648899</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>2.6119997501373202</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>2.2650117874145499</v>
       </c>
-      <c r="L13">
+      <c r="N13">
         <v>1.78699874877929</v>
       </c>
-      <c r="M13">
+      <c r="O13">
         <v>0.83702087402343694</v>
       </c>
-      <c r="N13">
+      <c r="P13">
         <v>1.28599882125854</v>
       </c>
-      <c r="O13">
+      <c r="Q13">
         <v>1.90601181983947</v>
       </c>
-      <c r="P13">
+      <c r="R13">
         <v>0.64199948310851995</v>
       </c>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:18">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -14281,38 +14322,41 @@
       <c r="F14">
         <v>8.2000970840454102E-2</v>
       </c>
-      <c r="G14">
+      <c r="G14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H14">
         <v>2.59399986267089</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>2.0760111808776802</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>2.1940002441406201</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>2.04598784446716</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>2.8190121650695801</v>
       </c>
-      <c r="L14">
+      <c r="N14">
         <v>2.63700127601623</v>
       </c>
-      <c r="M14">
+      <c r="O14">
         <v>0.46199703216552701</v>
       </c>
-      <c r="N14">
+      <c r="P14">
         <v>0.89599847793579102</v>
       </c>
-      <c r="O14">
+      <c r="Q14">
         <v>1.2210009098052901</v>
       </c>
-      <c r="P14">
+      <c r="R14">
         <v>0.64100003242492598</v>
       </c>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:18">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -14331,38 +14375,41 @@
       <c r="F15">
         <v>8.8998794555663993E-2</v>
       </c>
-      <c r="G15">
+      <c r="G15" t="s">
+        <v>14</v>
+      </c>
+      <c r="H15">
         <v>2.2060012817382799</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>1.60698866844177</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>1.6992828845977701</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>2.17401123046875</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>2.6789875030517498</v>
       </c>
-      <c r="L15">
+      <c r="N15">
         <v>0.86699938774108798</v>
       </c>
-      <c r="M15">
+      <c r="O15">
         <v>0.68983173370361295</v>
       </c>
-      <c r="N15">
+      <c r="P15">
         <v>1.5330002307891799</v>
       </c>
-      <c r="O15">
+      <c r="Q15">
         <v>1.2289981842041</v>
       </c>
-      <c r="P15">
+      <c r="R15">
         <v>0.50099968910217196</v>
       </c>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:18">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -14381,38 +14428,41 @@
       <c r="F16">
         <v>3.9998054504394497E-2</v>
       </c>
-      <c r="G16">
+      <c r="G16" t="s">
+        <v>15</v>
+      </c>
+      <c r="H16">
         <v>2.3049995899200399</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>1.4730110168457</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>5.0009999275207502</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>5.0000014305114702</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>5.0009999275207502</v>
       </c>
-      <c r="L16">
+      <c r="N16">
         <v>2.2749993801116899</v>
       </c>
-      <c r="M16">
+      <c r="O16">
         <v>1.5841355323791499</v>
       </c>
-      <c r="N16">
+      <c r="P16">
         <v>0.72000050544738703</v>
       </c>
-      <c r="O16">
+      <c r="Q16">
         <v>5.0000021457672101</v>
       </c>
-      <c r="P16">
+      <c r="R16">
         <v>0.61999917030334395</v>
       </c>
     </row>
-    <row r="17" spans="1:16">
+    <row r="17" spans="1:18">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -14431,38 +14481,41 @@
       <c r="F17">
         <v>1.29992961883544E-2</v>
       </c>
-      <c r="G17">
+      <c r="G17" t="s">
+        <v>16</v>
+      </c>
+      <c r="H17">
         <v>1.6869974136352499</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>0.83699989318847601</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>5.0007288455963099</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>5.0009987354278502</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>5.0000119209289497</v>
       </c>
-      <c r="L17">
+      <c r="N17">
         <v>1.08400058746337</v>
       </c>
-      <c r="M17">
+      <c r="O17">
         <v>1.35289931297302</v>
       </c>
-      <c r="N17">
+      <c r="P17">
         <v>5.0000369548797599</v>
       </c>
-      <c r="O17">
+      <c r="Q17">
         <v>5.0009989738464302</v>
       </c>
-      <c r="P17">
+      <c r="R17">
         <v>0.64699983596801702</v>
       </c>
     </row>
-    <row r="18" spans="1:16">
+    <row r="18" spans="1:18">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -14481,38 +14534,41 @@
       <c r="F18">
         <v>1.20007991790771E-2</v>
       </c>
-      <c r="G18">
+      <c r="G18" t="s">
+        <v>17</v>
+      </c>
+      <c r="H18">
         <v>1.13999915122985</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>2.73169517517089</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>5.0006411075591997</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>5.0009996891021702</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>5.0009999275207502</v>
       </c>
-      <c r="L18">
+      <c r="N18">
         <v>1.30700135231018</v>
       </c>
-      <c r="M18">
+      <c r="O18">
         <v>0.52101135253906194</v>
       </c>
-      <c r="N18">
+      <c r="P18">
         <v>5.0000009536743102</v>
       </c>
-      <c r="O18">
+      <c r="Q18">
         <v>5.0007038116454998</v>
       </c>
-      <c r="P18">
+      <c r="R18">
         <v>5.0000002384185702</v>
       </c>
     </row>
-    <row r="19" spans="1:16">
+    <row r="19" spans="1:18">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -14531,38 +14587,41 @@
       <c r="F19">
         <v>1.29976272583007E-2</v>
       </c>
-      <c r="G19">
+      <c r="G19" t="s">
+        <v>18</v>
+      </c>
+      <c r="H19">
         <v>2.5340015888214098</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>5.0002849102020201</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>5.0008759498596103</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>5.0000123977661097</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>5.0000014305114702</v>
       </c>
-      <c r="L19">
+      <c r="N19">
         <v>1.21001029014587</v>
       </c>
-      <c r="M19">
+      <c r="O19">
         <v>5.0000207424163801</v>
       </c>
-      <c r="N19">
+      <c r="P19">
         <v>5.0000083446502597</v>
       </c>
-      <c r="O19">
+      <c r="Q19">
         <v>5.0000755786895699</v>
       </c>
-      <c r="P19">
+      <c r="R19">
         <v>5.0000116825103698</v>
       </c>
     </row>
-    <row r="20" spans="1:16">
+    <row r="20" spans="1:18">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -14581,38 +14640,41 @@
       <c r="F20">
         <v>0.100010156631469</v>
       </c>
-      <c r="G20">
+      <c r="G20" t="s">
+        <v>19</v>
+      </c>
+      <c r="H20">
         <v>2.17699742317199</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>2.64799857139587</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>2.3573453426361</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>2.9689993858337398</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>2.1409986019134499</v>
       </c>
-      <c r="L20">
+      <c r="N20">
         <v>1.76999187469482</v>
       </c>
-      <c r="M20">
+      <c r="O20">
         <v>9.5001697540283203E-2</v>
       </c>
-      <c r="N20">
+      <c r="P20">
         <v>1.00500035285949</v>
       </c>
-      <c r="O20">
+      <c r="Q20">
         <v>0.25599002838134699</v>
       </c>
-      <c r="P20">
+      <c r="R20">
         <v>1.09400033950805</v>
       </c>
     </row>
-    <row r="21" spans="1:16">
+    <row r="21" spans="1:18">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -14631,38 +14693,41 @@
       <c r="F21">
         <v>8.9011192321777302E-2</v>
       </c>
-      <c r="G21">
+      <c r="G21" t="s">
+        <v>20</v>
+      </c>
+      <c r="H21">
         <v>2.0130007266998202</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>2.2285134792327801</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>2.06971883773803</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>1.54799699783325</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>1.4220001697540201</v>
       </c>
-      <c r="L21">
+      <c r="N21">
         <v>1.5540025234222401</v>
       </c>
-      <c r="M21">
+      <c r="O21">
         <v>1.26951456069946</v>
       </c>
-      <c r="N21">
+      <c r="P21">
         <v>0.59801220893859797</v>
       </c>
-      <c r="O21">
+      <c r="Q21">
         <v>1.2200000286102199</v>
       </c>
-      <c r="P21">
+      <c r="R21">
         <v>1.0860121250152499</v>
       </c>
     </row>
-    <row r="22" spans="1:16">
+    <row r="22" spans="1:18">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -14681,38 +14746,41 @@
       <c r="F22">
         <v>8.8010549545288003E-2</v>
       </c>
-      <c r="G22">
+      <c r="G22" t="s">
+        <v>21</v>
+      </c>
+      <c r="H22">
         <v>1.5620100498199401</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>1.954763174057</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>2.0732650756835902</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <v>2.2919991016387899</v>
       </c>
-      <c r="K22">
+      <c r="L22">
         <v>1.86501193046569</v>
       </c>
-      <c r="L22">
+      <c r="N22">
         <v>0.12899732589721599</v>
       </c>
-      <c r="M22">
+      <c r="O22">
         <v>0.888999223709106</v>
       </c>
-      <c r="N22">
+      <c r="P22">
         <v>0.64318418502807595</v>
       </c>
-      <c r="O22">
+      <c r="Q22">
         <v>0.61999893188476496</v>
       </c>
-      <c r="P22">
+      <c r="R22">
         <v>0.92399978637695301</v>
       </c>
     </row>
-    <row r="23" spans="1:16">
+    <row r="23" spans="1:18">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -14731,38 +14799,41 @@
       <c r="F23">
         <v>7.6004505157470703E-2</v>
       </c>
-      <c r="G23">
+      <c r="G23" t="s">
+        <v>22</v>
+      </c>
+      <c r="H23">
         <v>2.8809888362884499</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>2.1279997825622501</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>3.1779990196228001</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <v>3.1800119876861501</v>
       </c>
-      <c r="K23">
+      <c r="L23">
         <v>1.38899993896484</v>
       </c>
-      <c r="L23">
+      <c r="N23">
         <v>2.1040019989013601</v>
       </c>
-      <c r="M23">
+      <c r="O23">
         <v>0.43599963188171298</v>
       </c>
-      <c r="N23">
+      <c r="P23">
         <v>1.4237976074218699</v>
       </c>
-      <c r="O23">
+      <c r="Q23">
         <v>1.74099969863891</v>
       </c>
-      <c r="P23">
+      <c r="R23">
         <v>1.1620113849639799</v>
       </c>
     </row>
-    <row r="24" spans="1:16">
+    <row r="24" spans="1:18">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -14781,38 +14852,41 @@
       <c r="F24">
         <v>8.8012456893920898E-2</v>
       </c>
-      <c r="G24">
+      <c r="G24" t="s">
+        <v>23</v>
+      </c>
+      <c r="H24">
         <v>2.6789996623992902</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>1.6990003585815401</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>1.49624848365783</v>
       </c>
-      <c r="J24">
+      <c r="K24">
         <v>2.0539877414703298</v>
       </c>
-      <c r="K24">
+      <c r="L24">
         <v>2.79198765754699</v>
       </c>
-      <c r="L24">
+      <c r="N24">
         <v>1.7480001449584901</v>
       </c>
-      <c r="M24">
+      <c r="O24">
         <v>0.50400114059448198</v>
       </c>
-      <c r="N24">
+      <c r="P24">
         <v>0.60700368881225497</v>
       </c>
-      <c r="O24">
+      <c r="Q24">
         <v>1.4569995403289699</v>
       </c>
-      <c r="P24">
+      <c r="R24">
         <v>0.40101146697998002</v>
       </c>
     </row>
-    <row r="25" spans="1:16">
+    <row r="25" spans="1:18">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -14831,38 +14905,41 @@
       <c r="F25">
         <v>5.30111789703369E-2</v>
       </c>
-      <c r="G25">
+      <c r="G25" t="s">
+        <v>24</v>
+      </c>
+      <c r="H25">
         <v>1.06499743461608</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>2.1880123615264799</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>5.0007944107055602</v>
       </c>
-      <c r="J25">
+      <c r="K25">
         <v>5.0003135204315097</v>
       </c>
-      <c r="K25">
+      <c r="L25">
         <v>5.0000112056732098</v>
       </c>
-      <c r="L25">
+      <c r="N25">
         <v>0.68501305580139105</v>
       </c>
-      <c r="M25">
+      <c r="O25">
         <v>1.30900001525878</v>
       </c>
-      <c r="N25">
+      <c r="P25">
         <v>5.0001649856567303</v>
       </c>
-      <c r="O25">
+      <c r="Q25">
         <v>5.0000038146972603</v>
       </c>
-      <c r="P25">
+      <c r="R25">
         <v>1.29700946807861</v>
       </c>
     </row>
-    <row r="26" spans="1:16">
+    <row r="26" spans="1:18">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -14881,38 +14958,41 @@
       <c r="F26">
         <v>1.2002229690551701E-2</v>
       </c>
-      <c r="G26">
+      <c r="G26" t="s">
+        <v>25</v>
+      </c>
+      <c r="H26">
         <v>3.8660116195678702</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>0.96998929977416903</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>5.0006577968597403</v>
       </c>
-      <c r="J26">
+      <c r="K26">
         <v>5.0009984970092702</v>
       </c>
-      <c r="K26">
+      <c r="L26">
         <v>5.0009973049163801</v>
       </c>
-      <c r="L26">
+      <c r="N26">
         <v>2.2709970474243102</v>
       </c>
-      <c r="M26">
+      <c r="O26">
         <v>0.231999397277832</v>
       </c>
-      <c r="N26">
+      <c r="P26">
         <v>5.0009982585906902</v>
       </c>
-      <c r="O26">
+      <c r="Q26">
         <v>5.0006384849548304</v>
       </c>
-      <c r="P26">
+      <c r="R26">
         <v>0.85701084136962802</v>
       </c>
     </row>
-    <row r="27" spans="1:16">
+    <row r="27" spans="1:18">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -14931,38 +15011,41 @@
       <c r="F27">
         <v>1.9999742507934501E-2</v>
       </c>
-      <c r="G27">
+      <c r="G27" t="s">
+        <v>26</v>
+      </c>
+      <c r="H27">
         <v>3.20799231529235</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>5.0009987354278502</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <v>5.0005505084991402</v>
       </c>
-      <c r="J27">
+      <c r="K27">
         <v>5.0000123977661097</v>
       </c>
-      <c r="K27">
+      <c r="L27">
         <v>5.0000104904174796</v>
       </c>
-      <c r="L27">
+      <c r="N27">
         <v>0.30999636650085399</v>
       </c>
-      <c r="M27">
+      <c r="O27">
         <v>5.0003259181976301</v>
       </c>
-      <c r="N27">
+      <c r="P27">
         <v>5.0009179115295401</v>
       </c>
-      <c r="O27">
+      <c r="Q27">
         <v>5.0007610321044904</v>
       </c>
-      <c r="P27">
+      <c r="R27">
         <v>1.4719982147216699</v>
       </c>
     </row>
-    <row r="28" spans="1:16">
+    <row r="28" spans="1:18">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -14981,38 +15064,41 @@
       <c r="F28">
         <v>1.19876861572265E-2</v>
       </c>
-      <c r="G28">
+      <c r="G28" t="s">
+        <v>27</v>
+      </c>
+      <c r="H28">
         <v>0.87299990653991699</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>5.0009970664978001</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <v>5.0003507137298504</v>
       </c>
-      <c r="J28">
+      <c r="K28">
         <v>5.00099778175354</v>
       </c>
-      <c r="K28">
+      <c r="L28">
         <v>5.0010018348693803</v>
       </c>
-      <c r="L28">
+      <c r="N28">
         <v>2.0530014038085902</v>
       </c>
-      <c r="M28">
+      <c r="O28">
         <v>5.00057029724121</v>
       </c>
-      <c r="N28">
+      <c r="P28">
         <v>5.0000622272491402</v>
       </c>
-      <c r="O28">
+      <c r="Q28">
         <v>5.0006377696990896</v>
       </c>
-      <c r="P28">
+      <c r="R28">
         <v>5.0000114440917898</v>
       </c>
     </row>
-    <row r="29" spans="1:16">
+    <row r="29" spans="1:18">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -15031,38 +15117,41 @@
       <c r="F29">
         <v>0.103011131286621</v>
       </c>
-      <c r="G29">
+      <c r="G29" t="s">
+        <v>28</v>
+      </c>
+      <c r="H29">
         <v>1.66599941253662</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <v>1.58901023864746</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <v>2.0645251274108798</v>
       </c>
-      <c r="J29">
+      <c r="K29">
         <v>3.4728190898895201</v>
       </c>
-      <c r="K29">
+      <c r="L29">
         <v>2.1909990310668901</v>
       </c>
-      <c r="L29">
+      <c r="N29">
         <v>0.40899705886840798</v>
       </c>
-      <c r="M29">
+      <c r="O29">
         <v>0.93805098533630304</v>
       </c>
-      <c r="N29">
+      <c r="P29">
         <v>0.84999990463256803</v>
       </c>
-      <c r="O29">
+      <c r="Q29">
         <v>0.65699887275695801</v>
       </c>
-      <c r="P29">
+      <c r="R29">
         <v>0.72699975967407204</v>
       </c>
     </row>
-    <row r="30" spans="1:16">
+    <row r="30" spans="1:18">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -15081,38 +15170,41 @@
       <c r="F30">
         <v>9.0999603271484306E-2</v>
       </c>
-      <c r="G30">
+      <c r="G30" t="s">
+        <v>29</v>
+      </c>
+      <c r="H30">
         <v>2.1929976940154998</v>
       </c>
-      <c r="H30">
+      <c r="I30">
         <v>2.8289990425109801</v>
       </c>
-      <c r="I30">
+      <c r="J30">
         <v>3.05499839782714</v>
       </c>
-      <c r="J30">
+      <c r="K30">
         <v>2.55682921409606</v>
       </c>
-      <c r="K30">
+      <c r="L30">
         <v>1.7659993171691799</v>
       </c>
-      <c r="L30">
+      <c r="N30">
         <v>0.79699969291687001</v>
       </c>
-      <c r="M30">
+      <c r="O30">
         <v>0.39599919319152799</v>
       </c>
-      <c r="N30">
+      <c r="P30">
         <v>0.40100002288818298</v>
       </c>
-      <c r="O30">
+      <c r="Q30">
         <v>0.45500087738037098</v>
       </c>
-      <c r="P30">
+      <c r="R30">
         <v>0.47401165962219199</v>
       </c>
     </row>
-    <row r="31" spans="1:16">
+    <row r="31" spans="1:18">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -15131,38 +15223,41 @@
       <c r="F31">
         <v>7.30001926422119E-2</v>
       </c>
-      <c r="G31">
+      <c r="G31" t="s">
+        <v>30</v>
+      </c>
+      <c r="H31">
         <v>0.85499930381774902</v>
       </c>
-      <c r="H31">
+      <c r="I31">
         <v>2.50200200080871</v>
       </c>
-      <c r="I31">
+      <c r="J31">
         <v>2.2510383129119802</v>
       </c>
-      <c r="J31">
+      <c r="K31">
         <v>3.0791776180267298</v>
       </c>
-      <c r="K31">
+      <c r="L31">
         <v>1.31600022315979</v>
       </c>
-      <c r="L31">
+      <c r="N31">
         <v>0.78399991989135698</v>
       </c>
-      <c r="M31">
+      <c r="O31">
         <v>0.29400038719177202</v>
       </c>
-      <c r="N31">
+      <c r="P31">
         <v>1.34299993515014</v>
       </c>
-      <c r="O31">
+      <c r="Q31">
         <v>0.29099798202514598</v>
       </c>
-      <c r="P31">
+      <c r="R31">
         <v>0.72901177406311002</v>
       </c>
     </row>
-    <row r="32" spans="1:16">
+    <row r="32" spans="1:18">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -15181,38 +15276,41 @@
       <c r="F32">
         <v>9.6999645233154297E-2</v>
       </c>
-      <c r="G32">
+      <c r="G32" t="s">
+        <v>31</v>
+      </c>
+      <c r="H32">
         <v>0.51900076866149902</v>
       </c>
-      <c r="H32">
+      <c r="I32">
         <v>2.9349904060363698</v>
       </c>
-      <c r="I32">
+      <c r="J32">
         <v>1.7140018939971899</v>
       </c>
-      <c r="J32">
+      <c r="K32">
         <v>2.31400322914123</v>
       </c>
-      <c r="K32">
+      <c r="L32">
         <v>3.2369999885559002</v>
       </c>
-      <c r="L32">
+      <c r="N32">
         <v>1.83999919891357</v>
       </c>
-      <c r="M32">
+      <c r="O32">
         <v>0.458999633789062</v>
       </c>
-      <c r="N32">
+      <c r="P32">
         <v>0.83399939537048295</v>
       </c>
-      <c r="O32">
+      <c r="Q32">
         <v>1.96001076698303</v>
       </c>
-      <c r="P32">
+      <c r="R32">
         <v>0.72686243057250899</v>
       </c>
     </row>
-    <row r="33" spans="1:16">
+    <row r="33" spans="1:18">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -15231,38 +15329,41 @@
       <c r="F33">
         <v>7.3998928070068304E-2</v>
       </c>
-      <c r="G33">
+      <c r="G33" t="s">
+        <v>32</v>
+      </c>
+      <c r="H33">
         <v>3.0360009670257502</v>
       </c>
-      <c r="H33">
+      <c r="I33">
         <v>3.5880000591278001</v>
       </c>
-      <c r="I33">
+      <c r="J33">
         <v>1.7979993820190401</v>
       </c>
-      <c r="J33">
+      <c r="K33">
         <v>3.39701247215271</v>
       </c>
-      <c r="K33">
+      <c r="L33">
         <v>2.8760020732879599</v>
       </c>
-      <c r="L33">
+      <c r="N33">
         <v>0.245000600814819</v>
       </c>
-      <c r="M33">
+      <c r="O33">
         <v>1.0019993782043399</v>
       </c>
-      <c r="N33">
+      <c r="P33">
         <v>1.24099946022033</v>
       </c>
-      <c r="O33">
+      <c r="Q33">
         <v>1.5640118122100799</v>
       </c>
-      <c r="P33">
+      <c r="R33">
         <v>1.13798975944519</v>
       </c>
     </row>
-    <row r="34" spans="1:16">
+    <row r="34" spans="1:18">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -15281,38 +15382,41 @@
       <c r="F34">
         <v>2.89990901947021E-2</v>
       </c>
-      <c r="G34">
+      <c r="G34" t="s">
+        <v>33</v>
+      </c>
+      <c r="H34">
         <v>1.8869998455047601</v>
       </c>
-      <c r="H34">
+      <c r="I34">
         <v>2.0360121726989702</v>
       </c>
-      <c r="I34">
+      <c r="J34">
         <v>5.00032186508178</v>
       </c>
-      <c r="J34">
+      <c r="K34">
         <v>5.0000612735748202</v>
       </c>
-      <c r="K34">
+      <c r="L34">
         <v>5.0009980201721103</v>
       </c>
-      <c r="L34">
+      <c r="N34">
         <v>2.3460011482238698</v>
       </c>
-      <c r="M34">
+      <c r="O34">
         <v>0.12399792671203599</v>
       </c>
-      <c r="N34">
+      <c r="P34">
         <v>5.0002861022949201</v>
       </c>
-      <c r="O34">
+      <c r="Q34">
         <v>5.00002098083496</v>
       </c>
-      <c r="P34">
+      <c r="R34">
         <v>1.0819995403289699</v>
       </c>
     </row>
-    <row r="35" spans="1:16">
+    <row r="35" spans="1:18">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -15331,38 +15435,41 @@
       <c r="F35">
         <v>1.29997730255126E-2</v>
       </c>
-      <c r="G35">
+      <c r="G35" t="s">
+        <v>34</v>
+      </c>
+      <c r="H35">
         <v>3.4169993400573699</v>
       </c>
-      <c r="H35">
+      <c r="I35">
         <v>5.0009982585906902</v>
       </c>
-      <c r="I35">
+      <c r="J35">
         <v>5.0009996891021702</v>
       </c>
-      <c r="J35">
+      <c r="K35">
         <v>5.0001027584075901</v>
       </c>
-      <c r="K35">
+      <c r="L35">
         <v>5.0000116825103698</v>
       </c>
-      <c r="L35">
+      <c r="N35">
         <v>0.74400043487548795</v>
       </c>
-      <c r="M35">
+      <c r="O35">
         <v>0.66301202774047796</v>
       </c>
-      <c r="N35">
+      <c r="P35">
         <v>5.0009527206420898</v>
       </c>
-      <c r="O35">
+      <c r="Q35">
         <v>5.0004808902740399</v>
       </c>
-      <c r="P35">
+      <c r="R35">
         <v>1.47399926185607</v>
       </c>
     </row>
-    <row r="36" spans="1:16">
+    <row r="36" spans="1:18">
       <c r="A36" t="s">
         <v>35</v>
       </c>
@@ -15381,38 +15488,41 @@
       <c r="F36">
         <v>1.8998622894287099E-2</v>
       </c>
-      <c r="G36">
+      <c r="G36" t="s">
+        <v>35</v>
+      </c>
+      <c r="H36">
         <v>3.6840004920959402</v>
       </c>
-      <c r="H36">
+      <c r="I36">
         <v>5.0008382797241202</v>
       </c>
-      <c r="I36">
+      <c r="J36">
         <v>5.0003414154052699</v>
       </c>
-      <c r="J36">
+      <c r="K36">
         <v>5.0001986026763898</v>
       </c>
-      <c r="K36">
+      <c r="L36">
         <v>5.0009989738464302</v>
       </c>
-      <c r="L36">
+      <c r="N36">
         <v>2.13700103759765</v>
       </c>
-      <c r="M36">
+      <c r="O36">
         <v>5.0005686283111501</v>
       </c>
-      <c r="N36">
+      <c r="P36">
         <v>5.0009980201721103</v>
       </c>
-      <c r="O36">
+      <c r="Q36">
         <v>5.0006506443023602</v>
       </c>
-      <c r="P36">
+      <c r="R36">
         <v>1.6579999923705999</v>
       </c>
     </row>
-    <row r="37" spans="1:16">
+    <row r="37" spans="1:18">
       <c r="A37" t="s">
         <v>36</v>
       </c>
@@ -15431,38 +15541,41 @@
       <c r="F37">
         <v>1.2998580932617101E-2</v>
       </c>
-      <c r="G37">
+      <c r="G37" t="s">
+        <v>36</v>
+      </c>
+      <c r="H37">
         <v>4.1429972648620597</v>
       </c>
-      <c r="H37">
+      <c r="I37">
         <v>5.0006828308105398</v>
       </c>
-      <c r="I37">
+      <c r="J37">
         <v>5.0007061958312899</v>
       </c>
-      <c r="J37">
+      <c r="K37">
         <v>5.0009973049163801</v>
       </c>
-      <c r="K37">
+      <c r="L37">
         <v>5.0009989738464302</v>
       </c>
-      <c r="L37">
+      <c r="N37">
         <v>0.13599991798400801</v>
       </c>
-      <c r="M37">
+      <c r="O37">
         <v>5.0000283718109104</v>
       </c>
-      <c r="N37">
+      <c r="P37">
         <v>5.0000205039978001</v>
       </c>
-      <c r="O37">
+      <c r="Q37">
         <v>5.0000102519988996</v>
       </c>
-      <c r="P37">
+      <c r="R37">
         <v>5.0009994506835902</v>
       </c>
     </row>
-    <row r="38" spans="1:16">
+    <row r="38" spans="1:18">
       <c r="A38" t="s">
         <v>37</v>
       </c>
@@ -15481,38 +15594,41 @@
       <c r="F38">
         <v>9.5998048782348605E-2</v>
       </c>
-      <c r="G38">
+      <c r="G38" t="s">
+        <v>37</v>
+      </c>
+      <c r="H38">
         <v>2.9299995899200399</v>
       </c>
-      <c r="H38">
+      <c r="I38">
         <v>2.1538765430450399</v>
       </c>
-      <c r="I38">
+      <c r="J38">
         <v>3.5656197071075399</v>
       </c>
-      <c r="J38">
+      <c r="K38">
         <v>2.1140003204345699</v>
       </c>
-      <c r="K38">
+      <c r="L38">
         <v>2.0740118026733398</v>
       </c>
-      <c r="L38">
+      <c r="N38">
         <v>0.799000024795532</v>
       </c>
-      <c r="M38">
+      <c r="O38">
         <v>0.53272366523742598</v>
       </c>
-      <c r="N38">
+      <c r="P38">
         <v>1.6089992523193299</v>
       </c>
-      <c r="O38">
+      <c r="Q38">
         <v>1.0870118141174301</v>
       </c>
-      <c r="P38">
+      <c r="R38">
         <v>0.92499947547912598</v>
       </c>
     </row>
-    <row r="39" spans="1:16">
+    <row r="39" spans="1:18">
       <c r="A39" t="s">
         <v>38</v>
       </c>
@@ -15531,38 +15647,41 @@
       <c r="F39">
         <v>9.4012498855590806E-2</v>
       </c>
-      <c r="G39">
+      <c r="G39" t="s">
+        <v>38</v>
+      </c>
+      <c r="H39">
         <v>2.6939988136291499</v>
       </c>
-      <c r="H39">
+      <c r="I39">
         <v>2.8209977149963299</v>
       </c>
-      <c r="I39">
+      <c r="J39">
         <v>3.2420473098754798</v>
       </c>
-      <c r="J39">
+      <c r="K39">
         <v>2.35276103019714</v>
       </c>
-      <c r="K39">
+      <c r="L39">
         <v>1.5470108985900799</v>
       </c>
-      <c r="L39">
+      <c r="N39">
         <v>0.88100242614746005</v>
       </c>
-      <c r="M39">
+      <c r="O39">
         <v>1.4142642021179199</v>
       </c>
-      <c r="N39">
+      <c r="P39">
         <v>1.05301189422607</v>
       </c>
-      <c r="O39">
+      <c r="Q39">
         <v>0.90999913215637196</v>
       </c>
-      <c r="P39">
+      <c r="R39">
         <v>0.90299963951110795</v>
       </c>
     </row>
-    <row r="40" spans="1:16">
+    <row r="40" spans="1:18">
       <c r="A40" t="s">
         <v>39</v>
       </c>
@@ -15581,38 +15700,41 @@
       <c r="F40">
         <v>7.8997850418090806E-2</v>
       </c>
-      <c r="G40">
+      <c r="G40" t="s">
+        <v>39</v>
+      </c>
+      <c r="H40">
         <v>1.76900291442871</v>
       </c>
-      <c r="H40">
+      <c r="I40">
         <v>2.6219959259033199</v>
       </c>
-      <c r="I40">
+      <c r="J40">
         <v>1.8244256973266599</v>
       </c>
-      <c r="J40">
+      <c r="K40">
         <v>3.2119994163513099</v>
       </c>
-      <c r="K40">
+      <c r="L40">
         <v>1.8019998073577801</v>
       </c>
-      <c r="L40">
+      <c r="N40">
         <v>1.92699742317199</v>
       </c>
-      <c r="M40">
+      <c r="O40">
         <v>1.56899833679199</v>
       </c>
-      <c r="N40">
+      <c r="P40">
         <v>1.08999967575073</v>
       </c>
-      <c r="O40">
+      <c r="Q40">
         <v>1.69699954986572</v>
       </c>
-      <c r="P40">
+      <c r="R40">
         <v>0.50299954414367598</v>
       </c>
     </row>
-    <row r="41" spans="1:16">
+    <row r="41" spans="1:18">
       <c r="A41" t="s">
         <v>40</v>
       </c>
@@ -15631,38 +15753,41 @@
       <c r="F41">
         <v>9.6998929977416895E-2</v>
       </c>
-      <c r="G41">
+      <c r="G41" t="s">
+        <v>40</v>
+      </c>
+      <c r="H41">
         <v>2.58099961280822</v>
       </c>
-      <c r="H41">
+      <c r="I41">
         <v>3.38299131393432</v>
       </c>
-      <c r="I41">
+      <c r="J41">
         <v>2.0690541267395002</v>
       </c>
-      <c r="J41">
+      <c r="K41">
         <v>2.72200202941894</v>
       </c>
-      <c r="K41">
+      <c r="L41">
         <v>3.0099999904632502</v>
       </c>
-      <c r="L41">
+      <c r="N41">
         <v>2.5340011119842498</v>
       </c>
-      <c r="M41">
+      <c r="O41">
         <v>1.4070343971252399</v>
       </c>
-      <c r="N41">
+      <c r="P41">
         <v>0.49099946022033603</v>
       </c>
-      <c r="O41">
+      <c r="Q41">
         <v>1.32500028610229</v>
       </c>
-      <c r="P41">
+      <c r="R41">
         <v>0.91300010681152299</v>
       </c>
     </row>
-    <row r="42" spans="1:16">
+    <row r="42" spans="1:18">
       <c r="A42" t="s">
         <v>41</v>
       </c>
@@ -15681,38 +15806,41 @@
       <c r="F42">
         <v>9.1999292373657199E-2</v>
       </c>
-      <c r="G42">
+      <c r="G42" t="s">
+        <v>41</v>
+      </c>
+      <c r="H42">
         <v>2.7529969215393</v>
       </c>
-      <c r="H42">
+      <c r="I42">
         <v>2.04000616073608</v>
       </c>
-      <c r="I42">
+      <c r="J42">
         <v>2.4188487529754599</v>
       </c>
-      <c r="J42">
+      <c r="K42">
         <v>2.5659976005554199</v>
       </c>
-      <c r="K42">
+      <c r="L42">
         <v>2.8010115623474099</v>
       </c>
-      <c r="L42">
+      <c r="N42">
         <v>1.16699814796447</v>
       </c>
-      <c r="M42">
+      <c r="O42">
         <v>1.26399946212768</v>
       </c>
-      <c r="N42">
+      <c r="P42">
         <v>0.77323293685912997</v>
       </c>
-      <c r="O42">
+      <c r="Q42">
         <v>2.8880147933959899</v>
       </c>
-      <c r="P42">
+      <c r="R42">
         <v>0.93799924850463801</v>
       </c>
     </row>
-    <row r="43" spans="1:16">
+    <row r="43" spans="1:18">
       <c r="A43" t="s">
         <v>42</v>
       </c>
@@ -15731,38 +15859,41 @@
       <c r="F43">
         <v>4.5000076293945299E-2</v>
       </c>
-      <c r="G43">
+      <c r="G43" t="s">
+        <v>42</v>
+      </c>
+      <c r="H43">
         <v>1.70500016212463</v>
       </c>
-      <c r="H43">
+      <c r="I43">
         <v>2.56001472473144</v>
       </c>
-      <c r="I43">
+      <c r="J43">
         <v>5.0000021457672101</v>
       </c>
-      <c r="J43">
+      <c r="K43">
         <v>5.0010001659393302</v>
       </c>
-      <c r="K43">
+      <c r="L43">
         <v>5.0000116825103698</v>
       </c>
-      <c r="L43">
+      <c r="N43">
         <v>2.8220012187957701</v>
       </c>
-      <c r="M43">
+      <c r="O43">
         <v>0.53300118446350098</v>
       </c>
-      <c r="N43">
+      <c r="P43">
         <v>5.0009298324584899</v>
       </c>
-      <c r="O43">
+      <c r="Q43">
         <v>5.0000102519988996</v>
       </c>
-      <c r="P43">
+      <c r="R43">
         <v>0.49399971961975098</v>
       </c>
     </row>
-    <row r="44" spans="1:16">
+    <row r="44" spans="1:18">
       <c r="A44" t="s">
         <v>43</v>
       </c>
@@ -15781,38 +15912,41 @@
       <c r="F44">
         <v>1.2998819351196201E-2</v>
       </c>
-      <c r="G44">
+      <c r="G44" t="s">
+        <v>43</v>
+      </c>
+      <c r="H44">
         <v>2.8500015735626198</v>
       </c>
-      <c r="H44">
+      <c r="I44">
         <v>5.0005826950073198</v>
       </c>
-      <c r="I44">
+      <c r="J44">
         <v>5.0002160072326598</v>
       </c>
-      <c r="J44">
+      <c r="K44">
         <v>5.0009799003601003</v>
       </c>
-      <c r="K44">
+      <c r="L44">
         <v>5.0000104904174796</v>
       </c>
-      <c r="L44">
+      <c r="N44">
         <v>2.6909995079040501</v>
       </c>
-      <c r="M44">
+      <c r="O44">
         <v>1.23035168647766</v>
       </c>
-      <c r="N44">
+      <c r="P44">
         <v>5.0009992122650102</v>
       </c>
-      <c r="O44">
+      <c r="Q44">
         <v>5.00064897537231</v>
       </c>
-      <c r="P44">
+      <c r="R44">
         <v>1.38099765777587</v>
       </c>
     </row>
-    <row r="45" spans="1:16">
+    <row r="45" spans="1:18">
       <c r="A45" t="s">
         <v>44</v>
       </c>
@@ -15831,38 +15965,41 @@
       <c r="F45">
         <v>1.19984149932861E-2</v>
       </c>
-      <c r="G45">
+      <c r="G45" t="s">
+        <v>44</v>
+      </c>
+      <c r="H45">
         <v>2.6490111351013099</v>
       </c>
-      <c r="H45">
+      <c r="I45">
         <v>5.0009984970092702</v>
       </c>
-      <c r="I45">
+      <c r="J45">
         <v>5.0009856224059996</v>
       </c>
-      <c r="J45">
+      <c r="K45">
         <v>5.0009872913360596</v>
       </c>
-      <c r="K45">
+      <c r="L45">
         <v>5.0000114440917898</v>
       </c>
-      <c r="L45">
+      <c r="N45">
         <v>2.5609996318817099</v>
       </c>
-      <c r="M45">
+      <c r="O45">
         <v>5.0006809234619096</v>
       </c>
-      <c r="N45">
+      <c r="P45">
         <v>5.00014328956604</v>
       </c>
-      <c r="O45">
+      <c r="Q45">
         <v>5.0003068447113002</v>
       </c>
-      <c r="P45">
+      <c r="R45">
         <v>5.0009980201721103</v>
       </c>
     </row>
-    <row r="46" spans="1:16">
+    <row r="46" spans="1:18">
       <c r="A46" t="s">
         <v>45</v>
       </c>
@@ -15881,38 +16018,41 @@
       <c r="F46">
         <v>1.40020847320556E-2</v>
       </c>
-      <c r="G46">
+      <c r="G46" t="s">
+        <v>45</v>
+      </c>
+      <c r="H46">
         <v>5.0009896755218497</v>
       </c>
-      <c r="H46">
+      <c r="I46">
         <v>5.0006687641143799</v>
       </c>
-      <c r="I46">
+      <c r="J46">
         <v>5.0004644393920898</v>
       </c>
-      <c r="J46">
+      <c r="K46">
         <v>5.0001158714294398</v>
       </c>
-      <c r="K46">
+      <c r="L46">
         <v>5.0000014305114702</v>
       </c>
-      <c r="L46">
+      <c r="N46">
         <v>1.29199790954589</v>
       </c>
-      <c r="M46">
+      <c r="O46">
         <v>5.0000109672546298</v>
       </c>
-      <c r="N46">
+      <c r="P46">
         <v>5.0000023841857901</v>
       </c>
-      <c r="O46">
+      <c r="Q46">
         <v>5.0005257129669101</v>
       </c>
-      <c r="P46">
+      <c r="R46">
         <v>5.0009989738464302</v>
       </c>
     </row>
-    <row r="47" spans="1:16">
+    <row r="47" spans="1:18">
       <c r="A47" t="s">
         <v>46</v>
       </c>
@@ -15931,38 +16071,41 @@
       <c r="F47">
         <v>0.149011850357055</v>
       </c>
-      <c r="G47">
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47">
         <v>3.30899977684021</v>
       </c>
-      <c r="H47">
+      <c r="I47">
         <v>2.9159996509552002</v>
       </c>
-      <c r="I47">
+      <c r="J47">
         <v>2.4082181453704798</v>
       </c>
-      <c r="J47">
+      <c r="K47">
         <v>2.9470024108886701</v>
       </c>
-      <c r="K47">
+      <c r="L47">
         <v>1.9450094699859599</v>
       </c>
-      <c r="L47">
+      <c r="N47">
         <v>1.2870008945464999</v>
       </c>
-      <c r="M47">
+      <c r="O47">
         <v>0.84299969673156705</v>
       </c>
-      <c r="N47">
+      <c r="P47">
         <v>0.92999911308288497</v>
       </c>
-      <c r="O47">
+      <c r="Q47">
         <v>0.67400050163268999</v>
       </c>
-      <c r="P47">
+      <c r="R47">
         <v>0.59001207351684504</v>
       </c>
     </row>
-    <row r="48" spans="1:16">
+    <row r="48" spans="1:18">
       <c r="A48" t="s">
         <v>47</v>
       </c>
@@ -15981,38 +16124,41 @@
       <c r="F48">
         <v>9.1002225875854395E-2</v>
       </c>
-      <c r="G48">
+      <c r="G48" t="s">
+        <v>47</v>
+      </c>
+      <c r="H48">
         <v>2.8150107860565101</v>
       </c>
-      <c r="H48">
+      <c r="I48">
         <v>1.9419248104095399</v>
       </c>
-      <c r="I48">
+      <c r="J48">
         <v>3.1886837482452299</v>
       </c>
-      <c r="J48">
+      <c r="K48">
         <v>3.1369986534118599</v>
       </c>
-      <c r="K48">
+      <c r="L48">
         <v>1.74901151657104</v>
       </c>
-      <c r="L48">
+      <c r="N48">
         <v>1.11000180244445</v>
       </c>
-      <c r="M48">
+      <c r="O48">
         <v>0.81100106239318803</v>
       </c>
-      <c r="N48">
+      <c r="P48">
         <v>1.37800097465515</v>
       </c>
-      <c r="O48">
+      <c r="Q48">
         <v>0.48399996757507302</v>
       </c>
-      <c r="P48">
+      <c r="R48">
         <v>0.32200026512145902</v>
       </c>
     </row>
-    <row r="49" spans="1:16">
+    <row r="49" spans="1:18">
       <c r="A49" t="s">
         <v>48</v>
       </c>
@@ -16031,38 +16177,41 @@
       <c r="F49">
         <v>7.8998565673828097E-2</v>
       </c>
-      <c r="G49">
+      <c r="G49" t="s">
+        <v>48</v>
+      </c>
+      <c r="H49">
         <v>1.13698983192443</v>
       </c>
-      <c r="H49">
+      <c r="I49">
         <v>2.3091871738433798</v>
       </c>
-      <c r="I49">
+      <c r="J49">
         <v>2.7271299362182599</v>
       </c>
-      <c r="J49">
+      <c r="K49">
         <v>2.3840017318725502</v>
       </c>
-      <c r="K49">
+      <c r="L49">
         <v>1.47100234031677</v>
       </c>
-      <c r="L49">
+      <c r="N49">
         <v>1.7320098876953101</v>
       </c>
-      <c r="M49">
+      <c r="O49">
         <v>1.4129989147186199</v>
       </c>
-      <c r="N49">
+      <c r="P49">
         <v>0.92300319671630804</v>
       </c>
-      <c r="O49">
+      <c r="Q49">
         <v>0.79800057411193803</v>
       </c>
-      <c r="P49">
+      <c r="R49">
         <v>1.21801209449768</v>
       </c>
     </row>
-    <row r="50" spans="1:16">
+    <row r="50" spans="1:18">
       <c r="A50" t="s">
         <v>49</v>
       </c>
@@ -16081,38 +16230,41 @@
       <c r="F50">
         <v>7.8999519348144503E-2</v>
       </c>
-      <c r="G50">
+      <c r="G50" t="s">
+        <v>49</v>
+      </c>
+      <c r="H50">
         <v>3.1620130538940399</v>
       </c>
-      <c r="H50">
+      <c r="I50">
         <v>1.9210014343261701</v>
       </c>
-      <c r="I50">
+      <c r="J50">
         <v>2.9200010299682599</v>
       </c>
-      <c r="J50">
+      <c r="K50">
         <v>2.5470097064971902</v>
       </c>
-      <c r="K50">
+      <c r="L50">
         <v>1.99999928474426</v>
       </c>
-      <c r="L50">
+      <c r="N50">
         <v>2.0780007839202801</v>
       </c>
-      <c r="M50">
+      <c r="O50">
         <v>0.460010766983032</v>
       </c>
-      <c r="N50">
+      <c r="P50">
         <v>1.79800105094909</v>
       </c>
-      <c r="O50">
+      <c r="Q50">
         <v>1.4449977874755799</v>
       </c>
-      <c r="P50">
+      <c r="R50">
         <v>0.59900212287902799</v>
       </c>
     </row>
-    <row r="51" spans="1:16">
+    <row r="51" spans="1:18">
       <c r="A51" t="s">
         <v>50</v>
       </c>
@@ -16131,38 +16283,41 @@
       <c r="F51">
         <v>0.11101102828979401</v>
       </c>
-      <c r="G51">
+      <c r="G51" t="s">
+        <v>50</v>
+      </c>
+      <c r="H51">
         <v>2.6170094013214098</v>
       </c>
-      <c r="H51">
+      <c r="I51">
         <v>1.19398665428161</v>
       </c>
-      <c r="I51">
+      <c r="J51">
         <v>1.30499911308288</v>
       </c>
-      <c r="J51">
+      <c r="K51">
         <v>2.6349391937255802</v>
       </c>
-      <c r="K51">
+      <c r="L51">
         <v>3.2830111980438201</v>
       </c>
-      <c r="L51">
+      <c r="N51">
         <v>1.2950012683868399</v>
       </c>
-      <c r="M51">
+      <c r="O51">
         <v>1.3336939811706501</v>
       </c>
-      <c r="N51">
+      <c r="P51">
         <v>0.82701063156127896</v>
       </c>
-      <c r="O51">
+      <c r="Q51">
         <v>2.4189984798431299</v>
       </c>
-      <c r="P51">
+      <c r="R51">
         <v>1.22299981117248</v>
       </c>
     </row>
-    <row r="52" spans="1:16">
+    <row r="52" spans="1:18">
       <c r="A52" t="s">
         <v>51</v>
       </c>
@@ -16181,38 +16336,41 @@
       <c r="F52">
         <v>4.9001693725585903E-2</v>
       </c>
-      <c r="G52">
+      <c r="G52" t="s">
+        <v>51</v>
+      </c>
+      <c r="H52">
         <v>2.0639891624450599</v>
       </c>
-      <c r="H52">
+      <c r="I52">
         <v>5.0009994506835902</v>
       </c>
-      <c r="I52">
+      <c r="J52">
         <v>5.0004518032073904</v>
       </c>
-      <c r="J52">
+      <c r="K52">
         <v>5.0001440048217702</v>
       </c>
-      <c r="K52">
+      <c r="L52">
         <v>5.0009913444518999</v>
       </c>
-      <c r="L52">
+      <c r="N52">
         <v>2.0509986877441402</v>
       </c>
-      <c r="M52">
+      <c r="O52">
         <v>2.8980188369750901</v>
       </c>
-      <c r="N52">
+      <c r="P52">
         <v>5.0009992122650102</v>
       </c>
-      <c r="O52">
+      <c r="Q52">
         <v>5.0000009536743102</v>
       </c>
-      <c r="P52">
+      <c r="R52">
         <v>1.6590118408203101</v>
       </c>
     </row>
-    <row r="53" spans="1:16">
+    <row r="53" spans="1:18">
       <c r="A53" t="s">
         <v>52</v>
       </c>
@@ -16231,38 +16389,41 @@
       <c r="F53">
         <v>1.2001991271972601E-2</v>
       </c>
-      <c r="G53">
+      <c r="G53" t="s">
+        <v>52</v>
+      </c>
+      <c r="H53">
         <v>0.77001261711120605</v>
       </c>
-      <c r="H53">
+      <c r="I53">
         <v>5.0007679462432799</v>
       </c>
-      <c r="I53">
+      <c r="J53">
         <v>5.0009996891021702</v>
       </c>
-      <c r="J53">
+      <c r="K53">
         <v>5.0009999275207502</v>
       </c>
-      <c r="K53">
+      <c r="L53">
         <v>5.0010080337524396</v>
       </c>
-      <c r="L53">
+      <c r="N53">
         <v>2.85399913787841</v>
       </c>
-      <c r="M53">
+      <c r="O53">
         <v>5.0002927780151296</v>
       </c>
-      <c r="N53">
+      <c r="P53">
         <v>5.0000116825103698</v>
       </c>
-      <c r="O53">
+      <c r="Q53">
         <v>5.0005409717559797</v>
       </c>
-      <c r="P53">
+      <c r="R53">
         <v>2.34499907493591</v>
       </c>
     </row>
-    <row r="54" spans="1:16">
+    <row r="54" spans="1:18">
       <c r="A54" t="s">
         <v>53</v>
       </c>
@@ -16281,38 +16442,41 @@
       <c r="F54">
         <v>1.20000839233398E-2</v>
       </c>
-      <c r="G54">
+      <c r="G54" t="s">
+        <v>53</v>
+      </c>
+      <c r="H54">
         <v>3.6419866085052401</v>
       </c>
-      <c r="H54">
+      <c r="I54">
         <v>5.0000123977661097</v>
       </c>
-      <c r="I54">
+      <c r="J54">
         <v>5.0000114440917898</v>
       </c>
-      <c r="J54">
+      <c r="K54">
         <v>5.0000021457672101</v>
       </c>
-      <c r="K54">
+      <c r="L54">
         <v>5.0000004768371502</v>
       </c>
-      <c r="L54">
+      <c r="N54">
         <v>1.4960021972656199</v>
       </c>
-      <c r="M54">
+      <c r="O54">
         <v>5.0000061988830504</v>
       </c>
-      <c r="N54">
+      <c r="P54">
         <v>5.00099754333496</v>
       </c>
-      <c r="O54">
+      <c r="Q54">
         <v>5.0000107288360596</v>
       </c>
-      <c r="P54">
+      <c r="R54">
         <v>5.0000014305114702</v>
       </c>
     </row>
-    <row r="55" spans="1:16">
+    <row r="55" spans="1:18">
       <c r="A55" t="s">
         <v>54</v>
       </c>
@@ -16331,38 +16495,41 @@
       <c r="F55">
         <v>2.4010658264160101E-2</v>
       </c>
-      <c r="G55">
+      <c r="G55" t="s">
+        <v>54</v>
+      </c>
+      <c r="H55">
         <v>5.00099754333496</v>
       </c>
-      <c r="H55">
+      <c r="I55">
         <v>5.0009984970092702</v>
       </c>
-      <c r="I55">
+      <c r="J55">
         <v>5.0009956359863201</v>
       </c>
-      <c r="J55">
+      <c r="K55">
         <v>5.0007123947143501</v>
       </c>
-      <c r="K55">
+      <c r="L55">
         <v>5.0010001659393302</v>
       </c>
-      <c r="L55">
+      <c r="N55">
         <v>1.18900275230407</v>
       </c>
-      <c r="M55">
+      <c r="O55">
         <v>5.0000433921813903</v>
       </c>
-      <c r="N55">
+      <c r="P55">
         <v>5.0009992122650102</v>
       </c>
-      <c r="O55">
+      <c r="Q55">
         <v>5.0009696483611998</v>
       </c>
-      <c r="P55">
+      <c r="R55">
         <v>5.0000107288360596</v>
       </c>
     </row>
-    <row r="56" spans="1:16">
+    <row r="56" spans="1:18">
       <c r="A56" t="s">
         <v>55</v>
       </c>
@@ -16381,38 +16548,41 @@
       <c r="F56">
         <v>9.4010829925537095E-2</v>
       </c>
-      <c r="G56">
+      <c r="G56" t="s">
+        <v>55</v>
+      </c>
+      <c r="H56">
         <v>1.5249996185302701</v>
       </c>
-      <c r="H56">
+      <c r="I56">
         <v>2.72202348709106</v>
       </c>
-      <c r="I56">
+      <c r="J56">
         <v>2.0919997692108101</v>
       </c>
-      <c r="J56">
+      <c r="K56">
         <v>3.0745143890380802</v>
       </c>
-      <c r="K56">
+      <c r="L56">
         <v>2.0539989471435498</v>
       </c>
-      <c r="L56">
+      <c r="N56">
         <v>1.5780131816864</v>
       </c>
-      <c r="M56">
+      <c r="O56">
         <v>1.00499868392944</v>
       </c>
-      <c r="N56">
+      <c r="P56">
         <v>0.74199914932250899</v>
       </c>
-      <c r="O56">
+      <c r="Q56">
         <v>0.74799990653991699</v>
       </c>
-      <c r="P56">
+      <c r="R56">
         <v>0.357011318206787</v>
       </c>
     </row>
-    <row r="57" spans="1:16">
+    <row r="57" spans="1:18">
       <c r="A57" t="s">
         <v>56</v>
       </c>
@@ -16431,38 +16601,41 @@
       <c r="F57">
         <v>0.28300976753234802</v>
       </c>
-      <c r="G57">
+      <c r="G57" t="s">
+        <v>56</v>
+      </c>
+      <c r="H57">
         <v>3.2830014228820801</v>
       </c>
-      <c r="H57">
+      <c r="I57">
         <v>2.0339972972869802</v>
       </c>
-      <c r="I57">
+      <c r="J57">
         <v>2.68399906158447</v>
       </c>
-      <c r="J57">
+      <c r="K57">
         <v>2.77701210975646</v>
       </c>
-      <c r="K57">
+      <c r="L57">
         <v>1.72899961471557</v>
       </c>
-      <c r="L57">
+      <c r="N57">
         <v>0.90700125694274902</v>
       </c>
-      <c r="M57">
+      <c r="O57">
         <v>1.3479979038238501</v>
       </c>
-      <c r="N57">
+      <c r="P57">
         <v>0.74400043487548795</v>
       </c>
-      <c r="O57">
+      <c r="Q57">
         <v>1.52003717422485</v>
       </c>
-      <c r="P57">
+      <c r="R57">
         <v>1.06299877166748</v>
       </c>
     </row>
-    <row r="58" spans="1:16">
+    <row r="58" spans="1:18">
       <c r="A58" t="s">
         <v>57</v>
       </c>
@@ -16481,38 +16654,41 @@
       <c r="F58">
         <v>8.3001852035522405E-2</v>
       </c>
-      <c r="G58">
+      <c r="G58" t="s">
+        <v>57</v>
+      </c>
+      <c r="H58">
         <v>2.4549973011016801</v>
       </c>
-      <c r="H58">
+      <c r="I58">
         <v>1.9600014686584399</v>
       </c>
-      <c r="I58">
+      <c r="J58">
         <v>2.8919997215270898</v>
       </c>
-      <c r="J58">
+      <c r="K58">
         <v>2.57100129127502</v>
       </c>
-      <c r="K58">
+      <c r="L58">
         <v>1.8109996318817101</v>
       </c>
-      <c r="L58">
+      <c r="N58">
         <v>1.03599953651428</v>
       </c>
-      <c r="M58">
+      <c r="O58">
         <v>2.0609991550445499</v>
       </c>
-      <c r="N58">
+      <c r="P58">
         <v>1.5650103092193599</v>
       </c>
-      <c r="O58">
+      <c r="Q58">
         <v>0.55298829078674305</v>
       </c>
-      <c r="P58">
+      <c r="R58">
         <v>1.8709971904754601</v>
       </c>
     </row>
-    <row r="59" spans="1:16">
+    <row r="59" spans="1:18">
       <c r="A59" t="s">
         <v>58</v>
       </c>
@@ -16531,38 +16707,41 @@
       <c r="F59">
         <v>7.0009708404541002E-2</v>
       </c>
-      <c r="G59">
+      <c r="G59" t="s">
+        <v>58</v>
+      </c>
+      <c r="H59">
         <v>2.35799860954284</v>
       </c>
-      <c r="H59">
+      <c r="I59">
         <v>2.8729999065399099</v>
       </c>
-      <c r="I59">
+      <c r="J59">
         <v>2.3530125617980899</v>
       </c>
-      <c r="J59">
+      <c r="K59">
         <v>3.0730113983154199</v>
       </c>
-      <c r="K59">
+      <c r="L59">
         <v>1.9489996433257999</v>
       </c>
-      <c r="L59">
+      <c r="N59">
         <v>0.61999726295471103</v>
       </c>
-      <c r="M59">
+      <c r="O59">
         <v>1.1490008831024101</v>
       </c>
-      <c r="N59">
+      <c r="P59">
         <v>1.78957796096801</v>
       </c>
-      <c r="O59">
+      <c r="Q59">
         <v>2.3830220699310298</v>
       </c>
-      <c r="P59">
+      <c r="R59">
         <v>1.71401238441467</v>
       </c>
     </row>
-    <row r="60" spans="1:16">
+    <row r="60" spans="1:18">
       <c r="A60" t="s">
         <v>59</v>
       </c>
@@ -16581,38 +16760,41 @@
       <c r="F60">
         <v>5.4001808166503899E-2</v>
       </c>
-      <c r="G60">
+      <c r="G60" t="s">
+        <v>59</v>
+      </c>
+      <c r="H60">
         <v>2.7669997215270898</v>
       </c>
-      <c r="H60">
+      <c r="I60">
         <v>1.1660013198852499</v>
       </c>
-      <c r="I60">
+      <c r="J60">
         <v>1.38700199127197</v>
       </c>
-      <c r="J60">
+      <c r="K60">
         <v>2.81200051307678</v>
       </c>
-      <c r="K60">
+      <c r="L60">
         <v>2.6080114841461102</v>
       </c>
-      <c r="L60">
+      <c r="N60">
         <v>0.30600070953369102</v>
       </c>
-      <c r="M60">
+      <c r="O60">
         <v>1.85599684715271</v>
       </c>
-      <c r="N60">
+      <c r="P60">
         <v>1.33147048950195</v>
       </c>
-      <c r="O60">
+      <c r="Q60">
         <v>1.59499859809875</v>
       </c>
-      <c r="P60">
+      <c r="R60">
         <v>0.98801064491271895</v>
       </c>
     </row>
-    <row r="61" spans="1:16">
+    <row r="61" spans="1:18">
       <c r="A61" t="s">
         <v>60</v>
       </c>
@@ -16631,38 +16813,41 @@
       <c r="F61">
         <v>3.6000967025756801E-2</v>
       </c>
-      <c r="G61">
+      <c r="G61" t="s">
+        <v>60</v>
+      </c>
+      <c r="H61">
         <v>1.94199991226196</v>
       </c>
-      <c r="H61">
+      <c r="I61">
         <v>5.0009973049163801</v>
       </c>
-      <c r="I61">
+      <c r="J61">
         <v>5.0006017684936497</v>
       </c>
-      <c r="J61">
+      <c r="K61">
         <v>5.0000109672546298</v>
       </c>
-      <c r="K61">
+      <c r="L61">
         <v>5.0009899139404297</v>
       </c>
-      <c r="L61">
+      <c r="N61">
         <v>2.3170018196105899</v>
       </c>
-      <c r="M61">
+      <c r="O61">
         <v>5.0000019073486301</v>
       </c>
-      <c r="N61">
+      <c r="P61">
         <v>5.0009889602661097</v>
       </c>
-      <c r="O61">
+      <c r="Q61">
         <v>5.0009970664978001</v>
       </c>
-      <c r="P61">
+      <c r="R61">
         <v>1.35399842262268</v>
       </c>
     </row>
-    <row r="62" spans="1:16">
+    <row r="62" spans="1:18">
       <c r="A62" t="s">
         <v>61</v>
       </c>
@@ -16681,38 +16866,41 @@
       <c r="F62">
         <v>1.3009071350097601E-2</v>
       </c>
-      <c r="G62">
+      <c r="G62" t="s">
+        <v>61</v>
+      </c>
+      <c r="H62">
         <v>3.3069994449615399</v>
       </c>
-      <c r="H62">
+      <c r="I62">
         <v>5.0000002384185702</v>
       </c>
-      <c r="I62">
+      <c r="J62">
         <v>5.0005116462707502</v>
       </c>
-      <c r="J62">
+      <c r="K62">
         <v>5.0000002384185702</v>
       </c>
-      <c r="K62">
+      <c r="L62">
         <v>5.0000097751617396</v>
       </c>
-      <c r="L62">
+      <c r="N62">
         <v>3.09700202941894</v>
       </c>
-      <c r="M62">
+      <c r="O62">
         <v>5.0000002384185702</v>
       </c>
-      <c r="N62">
+      <c r="P62">
         <v>5.0009191036224303</v>
       </c>
-      <c r="O62">
+      <c r="Q62">
         <v>5.00009942054748</v>
       </c>
-      <c r="P62">
+      <c r="R62">
         <v>5.0000102519988996</v>
       </c>
     </row>
-    <row r="63" spans="1:16">
+    <row r="63" spans="1:18">
       <c r="A63" t="s">
         <v>62</v>
       </c>
@@ -16731,38 +16919,41 @@
       <c r="F63">
         <v>1.40013694763183E-2</v>
       </c>
-      <c r="G63">
+      <c r="G63" t="s">
+        <v>62</v>
+      </c>
+      <c r="H63">
         <v>2.24599957466125</v>
       </c>
-      <c r="H63">
+      <c r="I63">
         <v>5.0009987354278502</v>
       </c>
-      <c r="I63">
+      <c r="J63">
         <v>5.0009999275207502</v>
       </c>
-      <c r="J63">
+      <c r="K63">
         <v>5.0009953975677401</v>
       </c>
-      <c r="K63">
+      <c r="L63">
         <v>5.0009984970092702</v>
       </c>
-      <c r="L63">
+      <c r="N63">
         <v>2.4609997272491402</v>
       </c>
-      <c r="M63">
+      <c r="O63">
         <v>5.0000886917114196</v>
       </c>
-      <c r="N63">
+      <c r="P63">
         <v>5.0000247955322203</v>
       </c>
-      <c r="O63">
+      <c r="Q63">
         <v>5.0000534057617099</v>
       </c>
-      <c r="P63">
+      <c r="R63">
         <v>2.53300857543945</v>
       </c>
     </row>
-    <row r="64" spans="1:16">
+    <row r="64" spans="1:18">
       <c r="A64" t="s">
         <v>63</v>
       </c>
@@ -16781,38 +16972,41 @@
       <c r="F64">
         <v>1.3011455535888601E-2</v>
       </c>
-      <c r="G64">
+      <c r="G64" t="s">
+        <v>63</v>
+      </c>
+      <c r="H64">
         <v>5.0000002384185702</v>
       </c>
-      <c r="H64">
+      <c r="I64">
         <v>5.0000092983245796</v>
       </c>
-      <c r="I64">
+      <c r="J64">
         <v>5.0006682872772199</v>
       </c>
-      <c r="J64">
+      <c r="K64">
         <v>5.0001087188720703</v>
       </c>
-      <c r="K64">
+      <c r="L64">
         <v>5.0000121593475297</v>
       </c>
-      <c r="L64">
+      <c r="N64">
         <v>0.42499709129333402</v>
       </c>
-      <c r="M64">
+      <c r="O64">
         <v>5.0007150173187203</v>
       </c>
-      <c r="N64">
+      <c r="P64">
         <v>5.00048375129699</v>
       </c>
-      <c r="O64">
+      <c r="Q64">
         <v>5.0000009536743102</v>
       </c>
-      <c r="P64">
+      <c r="R64">
         <v>5.0000014305114702</v>
       </c>
     </row>
-    <row r="65" spans="1:16">
+    <row r="65" spans="1:18">
       <c r="A65" t="s">
         <v>64</v>
       </c>
@@ -16831,38 +17025,41 @@
       <c r="F65">
         <v>9.4010353088378906E-2</v>
       </c>
-      <c r="G65">
+      <c r="G65" t="s">
+        <v>64</v>
+      </c>
+      <c r="H65">
         <v>4.12400221824646</v>
       </c>
-      <c r="H65">
+      <c r="I65">
         <v>2.5630130767822199</v>
       </c>
-      <c r="I65">
+      <c r="J65">
         <v>2.1690289974212602</v>
       </c>
-      <c r="J65">
+      <c r="K65">
         <v>2.6810107231140101</v>
       </c>
-      <c r="K65">
+      <c r="L65">
         <v>2.1349997520446702</v>
       </c>
-      <c r="L65">
+      <c r="N65">
         <v>1.52000212669372</v>
       </c>
-      <c r="M65">
+      <c r="O65">
         <v>0.30399918556213301</v>
       </c>
-      <c r="N65">
+      <c r="P65">
         <v>0.28499937057495101</v>
       </c>
-      <c r="O65">
+      <c r="Q65">
         <v>0.63599944114685003</v>
       </c>
-      <c r="P65">
+      <c r="R65">
         <v>0.28100061416625899</v>
       </c>
     </row>
-    <row r="66" spans="1:16">
+    <row r="66" spans="1:18">
       <c r="A66" t="s">
         <v>65</v>
       </c>
@@ -16881,38 +17078,41 @@
       <c r="F66">
         <v>8.5999727249145494E-2</v>
       </c>
-      <c r="G66">
+      <c r="G66" t="s">
+        <v>65</v>
+      </c>
+      <c r="H66">
         <v>3.6739978790283199</v>
       </c>
-      <c r="H66">
+      <c r="I66">
         <v>1.9849877357482899</v>
       </c>
-      <c r="I66">
+      <c r="J66">
         <v>2.2512531280517498</v>
       </c>
-      <c r="J66">
+      <c r="K66">
         <v>2.3639898300170898</v>
       </c>
-      <c r="K66">
+      <c r="L66">
         <v>2.11499667167663</v>
       </c>
-      <c r="L66">
+      <c r="N66">
         <v>1.28199982643127</v>
       </c>
-      <c r="M66">
+      <c r="O66">
         <v>1.55822825431823</v>
       </c>
-      <c r="N66">
+      <c r="P66">
         <v>1.0739996433257999</v>
       </c>
-      <c r="O66">
+      <c r="Q66">
         <v>0.80099940299987704</v>
       </c>
-      <c r="P66">
+      <c r="R66">
         <v>0.80999922752380304</v>
       </c>
     </row>
-    <row r="67" spans="1:16">
+    <row r="67" spans="1:18">
       <c r="A67" t="s">
         <v>66</v>
       </c>
@@ -16931,38 +17131,41 @@
       <c r="F67">
         <v>0.11401104927062899</v>
       </c>
-      <c r="G67">
+      <c r="G67" t="s">
+        <v>66</v>
+      </c>
+      <c r="H67">
         <v>3.0989990234375</v>
       </c>
-      <c r="H67">
+      <c r="I67">
         <v>2.4309999942779501</v>
       </c>
-      <c r="I67">
+      <c r="J67">
         <v>1.6390027999877901</v>
       </c>
-      <c r="J67">
+      <c r="K67">
         <v>2.1130118370056099</v>
       </c>
-      <c r="K67">
+      <c r="L67">
         <v>2.9710121154785099</v>
       </c>
-      <c r="L67">
+      <c r="N67">
         <v>2.3300104141235298</v>
       </c>
-      <c r="M67">
+      <c r="O67">
         <v>1.5140123367309499</v>
       </c>
-      <c r="N67">
+      <c r="P67">
         <v>0.96100020408630304</v>
       </c>
-      <c r="O67">
+      <c r="Q67">
         <v>0.76602768898010198</v>
       </c>
-      <c r="P67">
+      <c r="R67">
         <v>1.3290002346038801</v>
       </c>
     </row>
-    <row r="68" spans="1:16">
+    <row r="68" spans="1:18">
       <c r="A68" t="s">
         <v>67</v>
       </c>
@@ -16981,38 +17184,41 @@
       <c r="F68">
         <v>6.8000078201293904E-2</v>
       </c>
-      <c r="G68">
+      <c r="G68" t="s">
+        <v>67</v>
+      </c>
+      <c r="H68">
         <v>3.1669991016387899</v>
       </c>
-      <c r="H68">
+      <c r="I68">
         <v>3.3530001640319802</v>
       </c>
-      <c r="I68">
+      <c r="J68">
         <v>2.4279985427856401</v>
       </c>
-      <c r="J68">
+      <c r="K68">
         <v>2.6719892024993799</v>
       </c>
-      <c r="K68">
+      <c r="L68">
         <v>1.4759991168975799</v>
       </c>
-      <c r="L68">
+      <c r="N68">
         <v>0.97500205039978005</v>
       </c>
-      <c r="M68">
+      <c r="O68">
         <v>1.1770920753478999</v>
       </c>
-      <c r="N68">
+      <c r="P68">
         <v>0.77529811859130804</v>
       </c>
-      <c r="O68">
+      <c r="Q68">
         <v>1.1970119476318299</v>
       </c>
-      <c r="P68">
+      <c r="R68">
         <v>1.3939995765686</v>
       </c>
     </row>
-    <row r="69" spans="1:16">
+    <row r="69" spans="1:18">
       <c r="A69" t="s">
         <v>68</v>
       </c>
@@ -17031,38 +17237,41 @@
       <c r="F69">
         <v>7.49969482421875E-2</v>
       </c>
-      <c r="G69">
+      <c r="G69" t="s">
+        <v>68</v>
+      </c>
+      <c r="H69">
         <v>1.3050122261047301</v>
       </c>
-      <c r="H69">
+      <c r="I69">
         <v>2.4680006504058798</v>
       </c>
-      <c r="I69">
+      <c r="J69">
         <v>1.48799920082092</v>
       </c>
-      <c r="J69">
+      <c r="K69">
         <v>2.2569999694824201</v>
       </c>
-      <c r="K69">
+      <c r="L69">
         <v>3.2119984626770002</v>
       </c>
-      <c r="L69">
+      <c r="N69">
         <v>1.58398985862731</v>
       </c>
-      <c r="M69">
+      <c r="O69">
         <v>0.536998510360717</v>
       </c>
-      <c r="N69">
+      <c r="P69">
         <v>2.2239978313446001</v>
       </c>
-      <c r="O69">
+      <c r="Q69">
         <v>1.08510589599609</v>
       </c>
-      <c r="P69">
+      <c r="R69">
         <v>1.01799917221069</v>
       </c>
     </row>
-    <row r="70" spans="1:16">
+    <row r="70" spans="1:18">
       <c r="A70" t="s">
         <v>69</v>
       </c>
@@ -17081,38 +17290,41 @@
       <c r="F70">
         <v>4.9999952316284103E-2</v>
       </c>
-      <c r="G70">
+      <c r="G70" t="s">
+        <v>69</v>
+      </c>
+      <c r="H70">
         <v>2.4739866256713801</v>
       </c>
-      <c r="H70">
+      <c r="I70">
         <v>0.55300331115722601</v>
       </c>
-      <c r="I70">
+      <c r="J70">
         <v>5.0009994506835902</v>
       </c>
-      <c r="J70">
+      <c r="K70">
         <v>5.0001931190490696</v>
       </c>
-      <c r="K70">
+      <c r="L70">
         <v>5.0009987354278502</v>
       </c>
-      <c r="L70">
+      <c r="N70">
         <v>2.0920019149780198</v>
       </c>
-      <c r="M70">
+      <c r="O70">
         <v>2.6840009689331001</v>
       </c>
-      <c r="N70">
+      <c r="P70">
         <v>5.0009989738464302</v>
       </c>
-      <c r="O70">
+      <c r="Q70">
         <v>5.0009386539459202</v>
       </c>
-      <c r="P70">
+      <c r="R70">
         <v>1.17499923706054</v>
       </c>
     </row>
-    <row r="71" spans="1:16">
+    <row r="71" spans="1:18">
       <c r="A71" t="s">
         <v>70</v>
       </c>
@@ -17131,38 +17343,41 @@
       <c r="F71">
         <v>1.30000114440917E-2</v>
       </c>
-      <c r="G71">
+      <c r="G71" t="s">
+        <v>70</v>
+      </c>
+      <c r="H71">
         <v>2.7410020828246999</v>
       </c>
-      <c r="H71">
+      <c r="I71">
         <v>5.0000016689300502</v>
       </c>
-      <c r="I71">
+      <c r="J71">
         <v>5.0001041889190603</v>
       </c>
-      <c r="J71">
+      <c r="K71">
         <v>5.0005431175231898</v>
       </c>
-      <c r="K71">
+      <c r="L71">
         <v>5.0000016689300502</v>
       </c>
-      <c r="L71">
+      <c r="N71">
         <v>0.36400079727172802</v>
       </c>
-      <c r="M71">
+      <c r="O71">
         <v>5.0009994506835902</v>
       </c>
-      <c r="N71">
+      <c r="P71">
         <v>5.0001468658447203</v>
       </c>
-      <c r="O71">
+      <c r="Q71">
         <v>5.0009992122650102</v>
       </c>
-      <c r="P71">
+      <c r="R71">
         <v>5.0009989738464302</v>
       </c>
     </row>
-    <row r="72" spans="1:16">
+    <row r="72" spans="1:18">
       <c r="A72" t="s">
         <v>71</v>
       </c>
@@ -17181,38 +17396,41 @@
       <c r="F72">
         <v>1.29995346069335E-2</v>
       </c>
-      <c r="G72">
+      <c r="G72" t="s">
+        <v>71</v>
+      </c>
+      <c r="H72">
         <v>2.2500121593475302</v>
       </c>
-      <c r="H72">
+      <c r="I72">
         <v>5.0002117156982404</v>
       </c>
-      <c r="I72">
+      <c r="J72">
         <v>5.0000076293945304</v>
       </c>
-      <c r="J72">
+      <c r="K72">
         <v>5.0000224113464302</v>
       </c>
-      <c r="K72">
+      <c r="L72">
         <v>5.0009992122650102</v>
       </c>
-      <c r="L72">
+      <c r="N72">
         <v>1.52399826049804</v>
       </c>
-      <c r="M72">
+      <c r="O72">
         <v>5.0000505447387598</v>
       </c>
-      <c r="N72">
+      <c r="P72">
         <v>5.0009992122650102</v>
       </c>
-      <c r="O72">
+      <c r="Q72">
         <v>5.0009434223175004</v>
       </c>
-      <c r="P72">
+      <c r="R72">
         <v>5.0000009536743102</v>
       </c>
     </row>
-    <row r="73" spans="1:16">
+    <row r="73" spans="1:18">
       <c r="A73" t="s">
         <v>72</v>
       </c>
@@ -17231,38 +17449,41 @@
       <c r="F73">
         <v>1.39999389648437E-2</v>
       </c>
-      <c r="G73">
+      <c r="G73" t="s">
+        <v>72</v>
+      </c>
+      <c r="H73">
         <v>5.0000016689300502</v>
       </c>
-      <c r="H73">
+      <c r="I73">
         <v>5.0010077953338596</v>
       </c>
-      <c r="I73">
+      <c r="J73">
         <v>5.0008428096771196</v>
       </c>
-      <c r="J73">
+      <c r="K73">
         <v>5.00052666664123</v>
       </c>
-      <c r="K73">
+      <c r="L73">
         <v>5.0009987354278502</v>
       </c>
-      <c r="L73">
+      <c r="N73">
         <v>5.0000121593475297</v>
       </c>
-      <c r="M73">
+      <c r="O73">
         <v>5.0009503364562899</v>
       </c>
-      <c r="N73">
+      <c r="P73">
         <v>5.0008690357208199</v>
       </c>
-      <c r="O73">
+      <c r="Q73">
         <v>5.0000102519988996</v>
       </c>
-      <c r="P73">
+      <c r="R73">
         <v>5.0009980201721103</v>
       </c>
     </row>
-    <row r="74" spans="1:16">
+    <row r="74" spans="1:18">
       <c r="A74" t="s">
         <v>73</v>
       </c>
@@ -17281,38 +17502,41 @@
       <c r="F74">
         <v>9.3000173568725503E-2</v>
       </c>
-      <c r="G74">
+      <c r="G74" t="s">
+        <v>73</v>
+      </c>
+      <c r="H74">
         <v>2.5519986152648899</v>
       </c>
-      <c r="H74">
+      <c r="I74">
         <v>2.8679986000061</v>
       </c>
-      <c r="I74">
+      <c r="J74">
         <v>3.0230002403259202</v>
       </c>
-      <c r="J74">
+      <c r="K74">
         <v>3.2050108909606898</v>
       </c>
-      <c r="K74">
+      <c r="L74">
         <v>1.6999976634979199</v>
       </c>
-      <c r="L74">
+      <c r="N74">
         <v>1.7329900264739899</v>
       </c>
-      <c r="M74">
+      <c r="O74">
         <v>0.52201056480407704</v>
       </c>
-      <c r="N74">
+      <c r="P74">
         <v>0.45700025558471602</v>
       </c>
-      <c r="O74">
+      <c r="Q74">
         <v>0.28301215171813898</v>
       </c>
-      <c r="P74">
+      <c r="R74">
         <v>0.68000078201293901</v>
       </c>
     </row>
-    <row r="75" spans="1:16">
+    <row r="75" spans="1:18">
       <c r="A75" t="s">
         <v>74</v>
       </c>
@@ -17331,38 +17555,41 @@
       <c r="F75">
         <v>8.7999820709228502E-2</v>
       </c>
-      <c r="G75">
+      <c r="G75" t="s">
+        <v>74</v>
+      </c>
+      <c r="H75">
         <v>3.9119992256164502</v>
       </c>
-      <c r="H75">
+      <c r="I75">
         <v>2.2648653984069802</v>
       </c>
-      <c r="I75">
+      <c r="J75">
         <v>3.0450017452239901</v>
       </c>
-      <c r="J75">
+      <c r="K75">
         <v>2.3659973144531201</v>
       </c>
-      <c r="K75">
+      <c r="L75">
         <v>2.3550117015838601</v>
       </c>
-      <c r="L75">
+      <c r="N75">
         <v>1.82599997520446</v>
       </c>
-      <c r="M75">
+      <c r="O75">
         <v>0.98501181602478005</v>
       </c>
-      <c r="N75">
+      <c r="P75">
         <v>0.48399949073791498</v>
       </c>
-      <c r="O75">
+      <c r="Q75">
         <v>0.89400029182434004</v>
       </c>
-      <c r="P75">
+      <c r="R75">
         <v>0.76200032234191895</v>
       </c>
     </row>
-    <row r="76" spans="1:16">
+    <row r="76" spans="1:18">
       <c r="A76" t="s">
         <v>75</v>
       </c>
@@ -17381,38 +17608,41 @@
       <c r="F76">
         <v>7.5999498367309501E-2</v>
       </c>
-      <c r="G76">
+      <c r="G76" t="s">
+        <v>75</v>
+      </c>
+      <c r="H76">
         <v>3.8569991588592498</v>
       </c>
-      <c r="H76">
+      <c r="I76">
         <v>3.3859992027282702</v>
       </c>
-      <c r="I76">
+      <c r="J76">
         <v>3.46957230567932</v>
       </c>
-      <c r="J76">
+      <c r="K76">
         <v>1.9700002670287999</v>
       </c>
-      <c r="K76">
+      <c r="L76">
         <v>1.66402316093444</v>
       </c>
-      <c r="L76">
+      <c r="N76">
         <v>2.2350013256072998</v>
       </c>
-      <c r="M76">
+      <c r="O76">
         <v>1.45314121246337</v>
       </c>
-      <c r="N76">
+      <c r="P76">
         <v>1.43598985671997</v>
       </c>
-      <c r="O76">
+      <c r="Q76">
         <v>1.0560109615325901</v>
       </c>
-      <c r="P76">
+      <c r="R76">
         <v>1.7289998531341499</v>
       </c>
     </row>
-    <row r="77" spans="1:16">
+    <row r="77" spans="1:18">
       <c r="A77" t="s">
         <v>76</v>
       </c>
@@ -17431,38 +17661,41 @@
       <c r="F77">
         <v>6.9000005722045898E-2</v>
       </c>
-      <c r="G77">
+      <c r="G77" t="s">
+        <v>76</v>
+      </c>
+      <c r="H77">
         <v>1.9740021228790201</v>
       </c>
-      <c r="H77">
+      <c r="I77">
         <v>2.5020153522491402</v>
       </c>
-      <c r="I77">
+      <c r="J77">
         <v>3.14242219924926</v>
       </c>
-      <c r="J77">
+      <c r="K77">
         <v>2.7379999160766602</v>
       </c>
-      <c r="K77">
+      <c r="L77">
         <v>1.5010018348693801</v>
       </c>
-      <c r="L77">
+      <c r="N77">
         <v>2.67499804496765</v>
       </c>
-      <c r="M77">
+      <c r="O77">
         <v>0.48961925506591703</v>
       </c>
-      <c r="N77">
+      <c r="P77">
         <v>0.44799971580505299</v>
       </c>
-      <c r="O77">
+      <c r="Q77">
         <v>1.0850019454955999</v>
       </c>
-      <c r="P77">
+      <c r="R77">
         <v>1.6179993152618399</v>
       </c>
     </row>
-    <row r="78" spans="1:16">
+    <row r="78" spans="1:18">
       <c r="A78" t="s">
         <v>77</v>
       </c>
@@ -17481,38 +17714,41 @@
       <c r="F78">
         <v>7.6999902725219699E-2</v>
       </c>
-      <c r="G78">
+      <c r="G78" t="s">
+        <v>77</v>
+      </c>
+      <c r="H78">
         <v>2.8869993686675999</v>
       </c>
-      <c r="H78">
+      <c r="I78">
         <v>1.8069999217987001</v>
       </c>
-      <c r="I78">
+      <c r="J78">
         <v>2.14399886131286</v>
       </c>
-      <c r="J78">
+      <c r="K78">
         <v>2.8160116672515798</v>
       </c>
-      <c r="K78">
+      <c r="L78">
         <v>2.8699979782104399</v>
       </c>
-      <c r="L78">
+      <c r="N78">
         <v>2.0060014724731401</v>
       </c>
-      <c r="M78">
+      <c r="O78">
         <v>0.54658222198486295</v>
       </c>
-      <c r="N78">
+      <c r="P78">
         <v>1.2431333065032899</v>
       </c>
-      <c r="O78">
+      <c r="Q78">
         <v>2.3560380935668901</v>
       </c>
-      <c r="P78">
+      <c r="R78">
         <v>2.60499739646911</v>
       </c>
     </row>
-    <row r="79" spans="1:16">
+    <row r="79" spans="1:18">
       <c r="A79" t="s">
         <v>78</v>
       </c>
@@ -17531,38 +17767,41 @@
       <c r="F79">
         <v>3.79996299743652E-2</v>
       </c>
-      <c r="G79">
+      <c r="G79" t="s">
+        <v>78</v>
+      </c>
+      <c r="H79">
         <v>1.8679997920989899</v>
-      </c>
-      <c r="H79">
-        <v>5.0000019073486301</v>
       </c>
       <c r="I79">
         <v>5.0000019073486301</v>
       </c>
       <c r="J79">
+        <v>5.0000019073486301</v>
+      </c>
+      <c r="K79">
         <v>5.0000090599059996</v>
       </c>
-      <c r="K79">
+      <c r="L79">
         <v>5.0000123977661097</v>
       </c>
-      <c r="L79">
+      <c r="N79">
         <v>0.97900247573852495</v>
       </c>
-      <c r="M79">
+      <c r="O79">
         <v>5.0000092983245796</v>
       </c>
-      <c r="N79">
+      <c r="P79">
         <v>5.0001428127288801</v>
       </c>
-      <c r="O79">
+      <c r="Q79">
         <v>5.0003111362457204</v>
       </c>
-      <c r="P79">
+      <c r="R79">
         <v>1.8959991931915201</v>
       </c>
     </row>
-    <row r="80" spans="1:16">
+    <row r="80" spans="1:18">
       <c r="A80" t="s">
         <v>79</v>
       </c>
@@ -17581,38 +17820,41 @@
       <c r="F80">
         <v>1.1999607086181601E-2</v>
       </c>
-      <c r="G80">
+      <c r="G80" t="s">
+        <v>79</v>
+      </c>
+      <c r="H80">
         <v>1.80899810791015</v>
       </c>
-      <c r="H80">
+      <c r="I80">
         <v>5.0004220008850098</v>
       </c>
-      <c r="I80">
+      <c r="J80">
         <v>5.0008170604705802</v>
       </c>
-      <c r="J80">
+      <c r="K80">
         <v>5.0009989738464302</v>
       </c>
-      <c r="K80">
+      <c r="L80">
         <v>5.0010004043579102</v>
       </c>
-      <c r="L80">
+      <c r="N80">
         <v>1.67899942398071</v>
       </c>
-      <c r="M80">
+      <c r="O80">
         <v>5.0000104904174796</v>
       </c>
-      <c r="N80">
+      <c r="P80">
         <v>5.0008895397186199</v>
       </c>
-      <c r="O80">
+      <c r="Q80">
         <v>5.0010094642639098</v>
       </c>
-      <c r="P80">
+      <c r="R80">
         <v>5.0000004768371502</v>
       </c>
     </row>
-    <row r="81" spans="1:16">
+    <row r="81" spans="1:18">
       <c r="A81" t="s">
         <v>80</v>
       </c>
@@ -17631,38 +17873,41 @@
       <c r="F81">
         <v>1.19988918304443E-2</v>
       </c>
-      <c r="G81">
+      <c r="G81" t="s">
+        <v>80</v>
+      </c>
+      <c r="H81">
         <v>5.0009989738464302</v>
       </c>
-      <c r="H81">
+      <c r="I81">
         <v>5.0000011920928902</v>
       </c>
-      <c r="I81">
+      <c r="J81">
         <v>5.0000247955322203</v>
       </c>
-      <c r="J81">
+      <c r="K81">
         <v>5.0005373954772896</v>
       </c>
-      <c r="K81">
+      <c r="L81">
         <v>5.0009965896606401</v>
       </c>
-      <c r="L81">
+      <c r="N81">
         <v>0.69299745559692305</v>
       </c>
-      <c r="M81">
+      <c r="O81">
         <v>5.0000014305114702</v>
       </c>
-      <c r="N81">
+      <c r="P81">
         <v>5.0008094310760498</v>
       </c>
-      <c r="O81">
+      <c r="Q81">
         <v>5.0007128715515101</v>
       </c>
-      <c r="P81">
+      <c r="R81">
         <v>5.0009992122650102</v>
       </c>
     </row>
-    <row r="82" spans="1:16">
+    <row r="82" spans="1:18">
       <c r="A82" t="s">
         <v>81</v>
       </c>
@@ -17681,40 +17926,69 @@
       <c r="F82">
         <v>1.4997720718383701E-2</v>
       </c>
-      <c r="G82">
-        <v>5.0000121593475297</v>
+      <c r="G82" t="s">
+        <v>81</v>
       </c>
       <c r="H82">
         <v>5.0000121593475297</v>
       </c>
       <c r="I82">
+        <v>5.0000121593475297</v>
+      </c>
+      <c r="J82">
         <v>5.0002298355102504</v>
       </c>
-      <c r="J82">
+      <c r="K82">
         <v>5.0005259513854901</v>
       </c>
-      <c r="K82">
+      <c r="L82">
         <v>5.0009994506835902</v>
       </c>
-      <c r="L82">
+      <c r="N82">
         <v>5.0010020732879603</v>
       </c>
-      <c r="M82">
+      <c r="O82">
         <v>5.0009968280792201</v>
       </c>
-      <c r="N82">
+      <c r="P82">
         <v>5.0000793933868399</v>
       </c>
-      <c r="O82">
+      <c r="Q82">
         <v>5.0000352859496999</v>
       </c>
-      <c r="P82">
+      <c r="R82">
         <v>5.0000002384185702</v>
       </c>
     </row>
+    <row r="84" spans="1:18">
+      <c r="H84">
+        <f>AVERAGE(H2:H82)</f>
+        <v>2.6259878123248042</v>
+      </c>
+      <c r="I84">
+        <f t="shared" ref="I84:N84" si="0">AVERAGE(I2:I82)</f>
+        <v>3.1315954084749551</v>
+      </c>
+      <c r="J84">
+        <f t="shared" si="0"/>
+        <v>3.5234692979741959</v>
+      </c>
+      <c r="K84">
+        <f t="shared" si="0"/>
+        <v>3.6533049683511973</v>
+      </c>
+      <c r="L84">
+        <f t="shared" si="0"/>
+        <v>3.3746085520143843</v>
+      </c>
+      <c r="N84">
+        <f t="shared" si="0"/>
+        <v>1.5536795692679291</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:P82">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="greaterThan">
+  <conditionalFormatting sqref="A1:R82">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17726,7 +18000,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P84"/>
   <sheetViews>
-    <sheetView topLeftCell="D28" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A43" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="L1" sqref="L1:L1048576"/>
     </sheetView>
   </sheetViews>
@@ -21900,7 +22174,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1:P1048576">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
@@ -21912,7 +22186,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A43" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="B84" sqref="B84:P84"/>
     </sheetView>
   </sheetViews>
@@ -26086,7 +26360,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:P82">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
